--- a/notes/SoilLiteraturesearch.xlsx
+++ b/notes/SoilLiteraturesearch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Coexistence-in-BC-Forests/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6ADABE-A96A-D44C-8F29-513767DBF337}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDB5B0F-BE3B-C94B-BE4F-C51FFC10F306}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="460" windowWidth="25040" windowHeight="14320" xr2:uid="{ACF0AC82-2E78-AD42-A070-EC9EF2E3FA3E}"/>
+    <workbookView xWindow="1100" yWindow="1080" windowWidth="25040" windowHeight="14320" xr2:uid="{ACF0AC82-2E78-AD42-A070-EC9EF2E3FA3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="350">
   <si>
     <t>Title</t>
   </si>
@@ -876,6 +876,213 @@
   </si>
   <si>
     <t>David</t>
+  </si>
+  <si>
+    <t>Vancouver island and mission</t>
+  </si>
+  <si>
+    <t>Studies of vesicular-arbuscular mycorrhiza in Wanagama I Forest Research Center, Yogyakarta, Indonesia</t>
+  </si>
+  <si>
+    <t>Sancayaningsih</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>conducted an experiment with different soils</t>
+  </si>
+  <si>
+    <t>Soils of three grassland-forest ecotones north of Kamloops, British Columbia</t>
+  </si>
+  <si>
+    <t>Ecological study of soils in the coastal western hemlock zone</t>
+  </si>
+  <si>
+    <t>Lesko</t>
+  </si>
+  <si>
+    <t>CWH</t>
+  </si>
+  <si>
+    <t>Investigation of the zinc and manganese status of some stands of tsuga heterophylla in British Columbia</t>
+  </si>
+  <si>
+    <t>Gadziola</t>
+  </si>
+  <si>
+    <t>Tsuga heterophylla</t>
+  </si>
+  <si>
+    <t>Conducted a nutrient experiment</t>
+  </si>
+  <si>
+    <t>Vertical distribution and biomass of fine roots in three subalpine forest plant associations in southwestern British Columbia</t>
+  </si>
+  <si>
+    <t>Nuszdorfer</t>
+  </si>
+  <si>
+    <t>Garibaldi</t>
+  </si>
+  <si>
+    <t>Surveyed soil depth and root biomass</t>
+  </si>
+  <si>
+    <t>Investigation of phosphorus acquisition strategies of ectomycorrhizal fungal communities along a podzolization gradient</t>
+  </si>
+  <si>
+    <t>Meeds</t>
+  </si>
+  <si>
+    <t>conducted a P addition experiment</t>
+  </si>
+  <si>
+    <t>The influence of soil fauna on nitrogen mineralization and decomposition in soil formed under western redcedar, western hemlock, sitka spruce and douglas-fir forests on the west coast of Vancouver Island</t>
+  </si>
+  <si>
+    <t>Pratt</t>
+  </si>
+  <si>
+    <t>Western hemlock, douglas fir, western redcedar , and sitka spruce</t>
+  </si>
+  <si>
+    <t>Measured N availability</t>
+  </si>
+  <si>
+    <t>Interspecific associations, phenology, and environment of some alpine plant communities on Lakeview Mountain, Southern British Columbia</t>
+  </si>
+  <si>
+    <t>Ratcliffe</t>
+  </si>
+  <si>
+    <t>alpine plants</t>
+  </si>
+  <si>
+    <t>Invesitgated soil profiles</t>
+  </si>
+  <si>
+    <t>Soil microbial enzyme activity and nutrient availability in response to green tree retention harvesting in Coastal British Columbia</t>
+  </si>
+  <si>
+    <t>Daradick</t>
+  </si>
+  <si>
+    <t>Measured soil pre and post harvesting</t>
+  </si>
+  <si>
+    <t>Does clearcutting affect the quantity of soluble organic nitrogen in forest soil?</t>
+  </si>
+  <si>
+    <t>Hannam</t>
+  </si>
+  <si>
+    <t>Measured inorganic N available to seedlings</t>
+  </si>
+  <si>
+    <t>An ecological classification of the ponderosa pine stands in the southwestern interior of British Columbia</t>
+  </si>
+  <si>
+    <t>Brayshaw</t>
+  </si>
+  <si>
+    <t>Ponderosa pine</t>
+  </si>
+  <si>
+    <t>investigated soil profiles</t>
+  </si>
+  <si>
+    <t>The effects of slashburning on soil mineralizable nitrogen on two sites in the lower Fraser Valley</t>
+  </si>
+  <si>
+    <t>Douglas</t>
+  </si>
+  <si>
+    <t>frasier valley</t>
+  </si>
+  <si>
+    <t>Measured soil N pre and post burning</t>
+  </si>
+  <si>
+    <t>The effects of stumping and tree species composition on the soil microbial community in the interior cedar-hemlock zone, British Columbia</t>
+  </si>
+  <si>
+    <t>Modi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measured ECM based on different tree species composition </t>
+  </si>
+  <si>
+    <t>Long-term fertilization effects on ectomycorrhizal community structure and fine root length in interior spruce forests</t>
+  </si>
+  <si>
+    <t>Hay</t>
+  </si>
+  <si>
+    <t>SBS</t>
+  </si>
+  <si>
+    <t>Measured ECM based on different nutrient treatments</t>
+  </si>
+  <si>
+    <t>A comparison of soil microbial communities in adjacent forest types that differ in nutrient cycling rates</t>
+  </si>
+  <si>
+    <t>Leckie</t>
+  </si>
+  <si>
+    <t>Measured microbial communities</t>
+  </si>
+  <si>
+    <t>Initial effects of clearcutting on the flow of chemicals through a forest-watershed ecosystem in south-western British Columbia</t>
+  </si>
+  <si>
+    <t>Feller</t>
+  </si>
+  <si>
+    <t>Measure soil nutrients</t>
+  </si>
+  <si>
+    <t>Reactive soil components and logging in Podzols of southwestern British Columbia</t>
+  </si>
+  <si>
+    <t>Grand</t>
+  </si>
+  <si>
+    <t>Robert creek</t>
+  </si>
+  <si>
+    <t>Measured soil inorganic carbon</t>
+  </si>
+  <si>
+    <t>Patterns in forest soil microbial community composition across a range of regional climates in Western Canada</t>
+  </si>
+  <si>
+    <t>Brockett</t>
+  </si>
+  <si>
+    <t>BC and Alberta</t>
+  </si>
+  <si>
+    <t>Measured soil microbial composition based on soil moisture and organic matter</t>
+  </si>
+  <si>
+    <t>Influence of kin, density, soil inoculum potential and interspecific competition on interior Douglas-fir (Pseudotsuga menziesii var. glauca) performance and adaptive traits</t>
+  </si>
+  <si>
+    <t>Asay</t>
+  </si>
+  <si>
+    <t>Measure differences in growth when species were kin and not</t>
+  </si>
+  <si>
+    <t>Going underground : patterns of fine-root and mycorrhizal fungal trait variation across a biogeographic gradient in western Canada</t>
+  </si>
+  <si>
+    <t>Defrenne</t>
+  </si>
+  <si>
+    <t>Measured how ECM vary with soil temperature, moisture and nutrients</t>
   </si>
 </sst>
 </file>
@@ -1247,10 +1454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3229ED88-417E-2249-B135-1FD9C0C3F17E}">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="P84" sqref="P84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3011,6 +3218,552 @@
         <v>84</v>
       </c>
     </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B69" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" t="s">
+        <v>40</v>
+      </c>
+      <c r="D69">
+        <v>1994</v>
+      </c>
+      <c r="E69" t="s">
+        <v>281</v>
+      </c>
+      <c r="F69" t="s">
+        <v>204</v>
+      </c>
+      <c r="G69" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>282</v>
+      </c>
+      <c r="B70" t="s">
+        <v>283</v>
+      </c>
+      <c r="C70" t="s">
+        <v>99</v>
+      </c>
+      <c r="D70">
+        <v>1991</v>
+      </c>
+      <c r="E70" t="s">
+        <v>284</v>
+      </c>
+      <c r="F70" t="s">
+        <v>37</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>286</v>
+      </c>
+      <c r="B71" t="s">
+        <v>184</v>
+      </c>
+      <c r="C71" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71">
+        <v>1981</v>
+      </c>
+      <c r="E71" t="s">
+        <v>73</v>
+      </c>
+      <c r="F71" t="s">
+        <v>37</v>
+      </c>
+      <c r="G71" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>287</v>
+      </c>
+      <c r="B72" t="s">
+        <v>288</v>
+      </c>
+      <c r="C72" t="s">
+        <v>113</v>
+      </c>
+      <c r="D72">
+        <v>1961</v>
+      </c>
+      <c r="E72" t="s">
+        <v>289</v>
+      </c>
+      <c r="F72" t="s">
+        <v>37</v>
+      </c>
+      <c r="G72" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>290</v>
+      </c>
+      <c r="B73" t="s">
+        <v>291</v>
+      </c>
+      <c r="C73" t="s">
+        <v>99</v>
+      </c>
+      <c r="D73">
+        <v>1991</v>
+      </c>
+      <c r="E73" t="s">
+        <v>37</v>
+      </c>
+      <c r="F73" t="s">
+        <v>292</v>
+      </c>
+      <c r="G73" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>294</v>
+      </c>
+      <c r="B74" t="s">
+        <v>295</v>
+      </c>
+      <c r="C74" t="s">
+        <v>178</v>
+      </c>
+      <c r="D74">
+        <v>1982</v>
+      </c>
+      <c r="E74" t="s">
+        <v>296</v>
+      </c>
+      <c r="F74" t="s">
+        <v>37</v>
+      </c>
+      <c r="G74" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>298</v>
+      </c>
+      <c r="B75" t="s">
+        <v>299</v>
+      </c>
+      <c r="C75" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75">
+        <v>2020</v>
+      </c>
+      <c r="E75" t="s">
+        <v>49</v>
+      </c>
+      <c r="F75" t="s">
+        <v>292</v>
+      </c>
+      <c r="G75" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>301</v>
+      </c>
+      <c r="B76" t="s">
+        <v>302</v>
+      </c>
+      <c r="C76" t="s">
+        <v>30</v>
+      </c>
+      <c r="D76">
+        <v>1999</v>
+      </c>
+      <c r="E76" t="s">
+        <v>49</v>
+      </c>
+      <c r="F76" t="s">
+        <v>303</v>
+      </c>
+      <c r="G76" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>305</v>
+      </c>
+      <c r="B77" t="s">
+        <v>306</v>
+      </c>
+      <c r="C77" t="s">
+        <v>40</v>
+      </c>
+      <c r="D77">
+        <v>1983</v>
+      </c>
+      <c r="E77" t="s">
+        <v>37</v>
+      </c>
+      <c r="F77" t="s">
+        <v>307</v>
+      </c>
+      <c r="G77" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>309</v>
+      </c>
+      <c r="B78" t="s">
+        <v>310</v>
+      </c>
+      <c r="C78" t="s">
+        <v>231</v>
+      </c>
+      <c r="D78">
+        <v>2007</v>
+      </c>
+      <c r="E78" t="s">
+        <v>289</v>
+      </c>
+      <c r="F78" t="s">
+        <v>37</v>
+      </c>
+      <c r="G78" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>312</v>
+      </c>
+      <c r="B79" t="s">
+        <v>313</v>
+      </c>
+      <c r="C79" t="s">
+        <v>77</v>
+      </c>
+      <c r="D79">
+        <v>2002</v>
+      </c>
+      <c r="E79" t="s">
+        <v>37</v>
+      </c>
+      <c r="F79" t="s">
+        <v>37</v>
+      </c>
+      <c r="G79" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>315</v>
+      </c>
+      <c r="B80" t="s">
+        <v>316</v>
+      </c>
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80">
+        <v>1955</v>
+      </c>
+      <c r="E80" t="s">
+        <v>222</v>
+      </c>
+      <c r="F80" t="s">
+        <v>317</v>
+      </c>
+      <c r="G80" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" t="s">
+        <v>319</v>
+      </c>
+      <c r="B81" t="s">
+        <v>320</v>
+      </c>
+      <c r="C81" t="s">
+        <v>40</v>
+      </c>
+      <c r="D81">
+        <v>1989</v>
+      </c>
+      <c r="E81" t="s">
+        <v>321</v>
+      </c>
+      <c r="F81" t="s">
+        <v>37</v>
+      </c>
+      <c r="G81" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
+        <v>323</v>
+      </c>
+      <c r="B82" t="s">
+        <v>324</v>
+      </c>
+      <c r="C82" t="s">
+        <v>58</v>
+      </c>
+      <c r="D82">
+        <v>2019</v>
+      </c>
+      <c r="E82" t="s">
+        <v>289</v>
+      </c>
+      <c r="F82" t="s">
+        <v>37</v>
+      </c>
+      <c r="G82" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
+        <v>326</v>
+      </c>
+      <c r="B83" t="s">
+        <v>327</v>
+      </c>
+      <c r="C83" t="s">
+        <v>65</v>
+      </c>
+      <c r="D83">
+        <v>2012</v>
+      </c>
+      <c r="E83" t="s">
+        <v>328</v>
+      </c>
+      <c r="F83" t="s">
+        <v>37</v>
+      </c>
+      <c r="G83" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>330</v>
+      </c>
+      <c r="B84" t="s">
+        <v>331</v>
+      </c>
+      <c r="C84" t="s">
+        <v>231</v>
+      </c>
+      <c r="D84">
+        <v>2003</v>
+      </c>
+      <c r="E84" t="s">
+        <v>49</v>
+      </c>
+      <c r="F84" t="s">
+        <v>222</v>
+      </c>
+      <c r="G84" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
+        <v>333</v>
+      </c>
+      <c r="B85" t="s">
+        <v>334</v>
+      </c>
+      <c r="C85" t="s">
+        <v>40</v>
+      </c>
+      <c r="D85">
+        <v>1975</v>
+      </c>
+      <c r="E85" t="s">
+        <v>129</v>
+      </c>
+      <c r="F85" t="s">
+        <v>37</v>
+      </c>
+      <c r="G85" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
+        <v>336</v>
+      </c>
+      <c r="B86" t="s">
+        <v>337</v>
+      </c>
+      <c r="C86" t="s">
+        <v>231</v>
+      </c>
+      <c r="D86">
+        <v>2011</v>
+      </c>
+      <c r="E86" t="s">
+        <v>338</v>
+      </c>
+      <c r="F86" t="s">
+        <v>37</v>
+      </c>
+      <c r="G86" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
+        <v>340</v>
+      </c>
+      <c r="B87" t="s">
+        <v>341</v>
+      </c>
+      <c r="C87" t="s">
+        <v>221</v>
+      </c>
+      <c r="D87">
+        <v>2008</v>
+      </c>
+      <c r="E87" t="s">
+        <v>342</v>
+      </c>
+      <c r="F87" t="s">
+        <v>37</v>
+      </c>
+      <c r="G87" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
+        <v>344</v>
+      </c>
+      <c r="B88" t="s">
+        <v>345</v>
+      </c>
+      <c r="C88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88">
+        <v>2019</v>
+      </c>
+      <c r="E88" t="s">
+        <v>37</v>
+      </c>
+      <c r="F88" t="s">
+        <v>71</v>
+      </c>
+      <c r="G88" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" t="s">
+        <v>347</v>
+      </c>
+      <c r="B89" t="s">
+        <v>348</v>
+      </c>
+      <c r="C89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89">
+        <v>2019</v>
+      </c>
+      <c r="E89" t="s">
+        <v>37</v>
+      </c>
+      <c r="F89" t="s">
+        <v>71</v>
+      </c>
+      <c r="G89" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" t="s">
+        <v>349</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notes/SoilLiteraturesearch.xlsx
+++ b/notes/SoilLiteraturesearch.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Coexistence-in-BC-Forests/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDB5B0F-BE3B-C94B-BE4F-C51FFC10F306}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE4D95F-03F1-604C-87A4-C3FD6824852B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1080" windowWidth="25040" windowHeight="14320" xr2:uid="{ACF0AC82-2E78-AD42-A070-EC9EF2E3FA3E}"/>
+    <workbookView xWindow="560" yWindow="940" windowWidth="25040" windowHeight="14320" xr2:uid="{ACF0AC82-2E78-AD42-A070-EC9EF2E3FA3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$89</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="357">
   <si>
     <t>Title</t>
   </si>
@@ -1083,6 +1086,27 @@
   </si>
   <si>
     <t>Measured how ECM vary with soil temperature, moisture and nutrients</t>
+  </si>
+  <si>
+    <t>collected soil from two locations but never mixed them in treatments and took seedlings from the forest and innocolated bacteria</t>
+  </si>
+  <si>
+    <t>Collected a field experiement across a variety of gradients (soil moisture, light) and didn't conduct an experiment to observe seedling growth across soils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excluded mychorizae fungi from different soils with varying amounts of gap sizes. Survival rather than growth was measured </t>
+  </si>
+  <si>
+    <t>conducted a fungicide and mesh experiment then tested colonization rate then conducted a field experiment with varying distances of trees however again measured colonization rate rather than seedling performace. Measured seedling growth and performace based on distance for one species, didn't take in account density or multiple species</t>
+  </si>
+  <si>
+    <t>Differences between my proposed methods</t>
+  </si>
+  <si>
+    <t>To measure mychroziae fungi in different plants, their soil spore experiment failed to show anything</t>
+  </si>
+  <si>
+    <t>Planted kin and non kin species together to observe growth, measured mychrorizae fungal colonization as well did this for pine and douglas fir. Had field soil and steralized this, also conducted a density treatment but only for douglas fir seedlings and not pine</t>
   </si>
 </sst>
 </file>
@@ -1115,12 +1139,18 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1135,11 +1165,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1454,15 +1485,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3229ED88-417E-2249-B135-1FD9C0C3F17E}">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="P84" sqref="P84"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1487,8 +1518,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1514,7 +1548,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1540,7 +1574,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -1566,7 +1600,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1592,7 +1626,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1618,7 +1652,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -1644,7 +1678,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -1667,7 +1701,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1693,7 +1727,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -1719,7 +1753,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -1745,7 +1779,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -1771,7 +1805,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -1797,7 +1831,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -1823,7 +1857,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -1849,7 +1883,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>78</v>
       </c>
@@ -1875,7 +1909,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -1901,7 +1935,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>91</v>
       </c>
@@ -1927,7 +1961,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>94</v>
       </c>
@@ -1953,7 +1987,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>100</v>
       </c>
@@ -1979,7 +2013,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>104</v>
       </c>
@@ -2005,7 +2039,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>108</v>
       </c>
@@ -2031,7 +2065,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>111</v>
       </c>
@@ -2056,8 +2090,11 @@
       <c r="H23" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>116</v>
       </c>
@@ -2083,7 +2120,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>119</v>
       </c>
@@ -2109,7 +2146,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>123</v>
       </c>
@@ -2134,8 +2171,11 @@
       <c r="H26" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>127</v>
       </c>
@@ -2161,7 +2201,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>131</v>
       </c>
@@ -2187,7 +2227,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>135</v>
       </c>
@@ -2213,7 +2253,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>140</v>
       </c>
@@ -2239,7 +2279,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>143</v>
       </c>
@@ -2265,7 +2305,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>147</v>
       </c>
@@ -2291,7 +2331,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>150</v>
       </c>
@@ -2317,7 +2357,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
         <v>155</v>
       </c>
@@ -2343,7 +2383,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>159</v>
       </c>
@@ -2368,8 +2408,11 @@
       <c r="H35" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>162</v>
       </c>
@@ -2395,7 +2438,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>166</v>
       </c>
@@ -2421,7 +2464,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
         <v>171</v>
       </c>
@@ -2447,33 +2490,36 @@
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
-      <c r="A39" t="s">
+    <row r="39" spans="1:9" s="4" customFormat="1">
+      <c r="A39" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="4">
         <v>2008</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="4" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>181</v>
       </c>
@@ -2499,7 +2545,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>183</v>
       </c>
@@ -2525,7 +2571,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>186</v>
       </c>
@@ -2551,7 +2597,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:9">
       <c r="A43" s="2" t="s">
         <v>189</v>
       </c>
@@ -2577,7 +2623,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>194</v>
       </c>
@@ -2603,7 +2649,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>197</v>
       </c>
@@ -2629,7 +2675,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
         <v>201</v>
       </c>
@@ -2655,7 +2701,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>206</v>
       </c>
@@ -2674,11 +2720,14 @@
       <c r="F47" t="s">
         <v>208</v>
       </c>
+      <c r="G47" t="s">
+        <v>14</v>
+      </c>
       <c r="H47" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>210</v>
       </c>
@@ -2775,6 +2824,9 @@
       <c r="F51" s="1" t="s">
         <v>225</v>
       </c>
+      <c r="G51" t="s">
+        <v>14</v>
+      </c>
       <c r="H51" t="s">
         <v>42</v>
       </c>
@@ -2955,7 +3007,7 @@
         <v>249</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
         <v>250</v>
@@ -3117,7 +3169,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>269</v>
       </c>
@@ -3136,11 +3188,14 @@
       <c r="F65" t="s">
         <v>273</v>
       </c>
+      <c r="G65" t="s">
+        <v>14</v>
+      </c>
       <c r="H65" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>274</v>
       </c>
@@ -3166,7 +3221,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>277</v>
       </c>
@@ -3192,7 +3247,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:9">
       <c r="A68" s="2" t="s">
         <v>279</v>
       </c>
@@ -3218,7 +3273,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
         <v>201</v>
       </c>
@@ -3244,7 +3299,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>282</v>
       </c>
@@ -3269,8 +3324,11 @@
       <c r="H70" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I70" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>286</v>
       </c>
@@ -3296,7 +3354,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>287</v>
       </c>
@@ -3322,7 +3380,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>290</v>
       </c>
@@ -3348,7 +3406,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>294</v>
       </c>
@@ -3374,7 +3432,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>298</v>
       </c>
@@ -3400,7 +3458,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>301</v>
       </c>
@@ -3426,7 +3484,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>305</v>
       </c>
@@ -3452,7 +3510,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>309</v>
       </c>
@@ -3478,7 +3536,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>312</v>
       </c>
@@ -3504,7 +3562,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>315</v>
       </c>
@@ -3530,7 +3588,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>319</v>
       </c>
@@ -3556,7 +3614,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>323</v>
       </c>
@@ -3582,7 +3640,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>326</v>
       </c>
@@ -3608,7 +3666,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>330</v>
       </c>
@@ -3634,7 +3692,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>333</v>
       </c>
@@ -3660,7 +3718,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>336</v>
       </c>
@@ -3686,7 +3744,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>340</v>
       </c>
@@ -3712,33 +3770,36 @@
         <v>343</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
-      <c r="A88" t="s">
+    <row r="88" spans="1:9" s="4" customFormat="1">
+      <c r="A88" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="4">
         <v>2019</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H88" t="s">
+      <c r="H88" s="4" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="I88" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>347</v>
       </c>
@@ -3765,6 +3826,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H89" xr:uid="{A31936E5-CF21-5448-BD1B-775C4BC8F4BE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>